--- a/Code/Results/Cases/Case_9_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001109027650791</v>
+        <v>1.001228463154796</v>
       </c>
       <c r="D2">
-        <v>1.021372910767695</v>
+        <v>1.021133390473061</v>
       </c>
       <c r="E2">
-        <v>1.016211751372347</v>
+        <v>1.016313090893106</v>
       </c>
       <c r="F2">
-        <v>1.024746809380102</v>
+        <v>1.024827195793725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043559258201701</v>
+        <v>1.043468870167814</v>
       </c>
       <c r="J2">
-        <v>1.023256618414949</v>
+        <v>1.023372493081695</v>
       </c>
       <c r="K2">
-        <v>1.032542305566065</v>
+        <v>1.032305950177639</v>
       </c>
       <c r="L2">
-        <v>1.027449758091068</v>
+        <v>1.027549741990367</v>
       </c>
       <c r="M2">
-        <v>1.035871820105979</v>
+        <v>1.035951153492604</v>
       </c>
       <c r="N2">
-        <v>1.011600159784638</v>
+        <v>1.013351904615511</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03696252108235</v>
+        <v>1.037025308446085</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.034080444250254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033922144801093</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020701507759149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004677934886166</v>
+        <v>1.004671497480502</v>
       </c>
       <c r="D3">
-        <v>1.023702074766053</v>
+        <v>1.023292446858723</v>
       </c>
       <c r="E3">
-        <v>1.019020851778734</v>
+        <v>1.019019911337158</v>
       </c>
       <c r="F3">
-        <v>1.027551025182306</v>
+        <v>1.027549170912967</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044084664803879</v>
+        <v>1.043922628540346</v>
       </c>
       <c r="J3">
-        <v>1.02504188196463</v>
+        <v>1.025035617835724</v>
       </c>
       <c r="K3">
-        <v>1.034040405777117</v>
+        <v>1.033635724473846</v>
       </c>
       <c r="L3">
-        <v>1.02941600706404</v>
+        <v>1.029415078103466</v>
       </c>
       <c r="M3">
-        <v>1.037843115779876</v>
+        <v>1.037841283683865</v>
       </c>
       <c r="N3">
-        <v>1.01221082497381</v>
+        <v>1.013804122408342</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038522675435947</v>
+        <v>1.038521225450799</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035137062776484</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034859463741981</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02095719255502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006948708844629</v>
+        <v>1.006863086547724</v>
       </c>
       <c r="D4">
-        <v>1.025186520102862</v>
+        <v>1.024669292692501</v>
       </c>
       <c r="E4">
-        <v>1.020814310258685</v>
+        <v>1.020748961367973</v>
       </c>
       <c r="F4">
-        <v>1.029343314526517</v>
+        <v>1.029289709521211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044408856266394</v>
+        <v>1.044201441436075</v>
       </c>
       <c r="J4">
-        <v>1.026176320797783</v>
+        <v>1.026092848379648</v>
       </c>
       <c r="K4">
-        <v>1.034990179985768</v>
+        <v>1.034478826071833</v>
       </c>
       <c r="L4">
-        <v>1.030667851204968</v>
+        <v>1.030603251858283</v>
       </c>
       <c r="M4">
-        <v>1.039100034965063</v>
+        <v>1.039047032307348</v>
       </c>
       <c r="N4">
-        <v>1.012598715332228</v>
+        <v>1.014091523437997</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039517444745214</v>
+        <v>1.039475496636849</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035809543121349</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035456598169941</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021116877651561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007897063922998</v>
+        <v>1.007778559783766</v>
       </c>
       <c r="D5">
-        <v>1.025809246466993</v>
+        <v>1.025247259566943</v>
       </c>
       <c r="E5">
-        <v>1.021564907962235</v>
+        <v>1.021472797978055</v>
       </c>
       <c r="F5">
-        <v>1.030093421394574</v>
+        <v>1.030018323347885</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044543209259895</v>
+        <v>1.04431689606451</v>
       </c>
       <c r="J5">
-        <v>1.026651007465482</v>
+        <v>1.026535390536455</v>
       </c>
       <c r="K5">
-        <v>1.035388795346828</v>
+        <v>1.034833022131693</v>
       </c>
       <c r="L5">
-        <v>1.031191593098775</v>
+        <v>1.0311005114025</v>
       </c>
       <c r="M5">
-        <v>1.039625875368148</v>
+        <v>1.039551598713856</v>
       </c>
       <c r="N5">
-        <v>1.012761249533773</v>
+        <v>1.014212017347677</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039933612615482</v>
+        <v>1.039874827575073</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036098609095518</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035714966224198</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021183806646685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008059054139032</v>
+        <v>1.007934922327966</v>
       </c>
       <c r="D6">
-        <v>1.025918338377957</v>
+        <v>1.025348749591322</v>
       </c>
       <c r="E6">
-        <v>1.021693380293338</v>
+        <v>1.02159668692722</v>
       </c>
       <c r="F6">
-        <v>1.030221267307919</v>
+        <v>1.030142489098816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044567745567463</v>
+        <v>1.044338211527063</v>
       </c>
       <c r="J6">
-        <v>1.026733624590533</v>
+        <v>1.026612501656127</v>
       </c>
       <c r="K6">
-        <v>1.035460245734585</v>
+        <v>1.034896926131646</v>
       </c>
       <c r="L6">
-        <v>1.03128199430202</v>
+        <v>1.031186375436903</v>
       </c>
       <c r="M6">
-        <v>1.039716089365865</v>
+        <v>1.039638168858122</v>
       </c>
       <c r="N6">
-        <v>1.012789861416785</v>
+        <v>1.01423326727669</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040005010998619</v>
+        <v>1.039943342096129</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036157921330098</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035769811014475</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021196374901376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00697021916611</v>
+        <v>1.00689110263052</v>
       </c>
       <c r="D7">
-        <v>1.025207837373115</v>
+        <v>1.024694970702412</v>
       </c>
       <c r="E7">
-        <v>1.020831812834621</v>
+        <v>1.020771915781678</v>
       </c>
       <c r="F7">
-        <v>1.029359271196215</v>
+        <v>1.029310005693996</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044416558835724</v>
+        <v>1.044211076580474</v>
       </c>
       <c r="J7">
-        <v>1.026191265018737</v>
+        <v>1.026114134151911</v>
       </c>
       <c r="K7">
-        <v>1.035008352709959</v>
+        <v>1.03450130774259</v>
       </c>
       <c r="L7">
-        <v>1.03068223374186</v>
+        <v>1.030623023437772</v>
       </c>
       <c r="M7">
-        <v>1.039112925360206</v>
+        <v>1.039064213234921</v>
       </c>
       <c r="N7">
-        <v>1.012604721249951</v>
+        <v>1.014123904165357</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039527646642553</v>
+        <v>1.039489094208309</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035842611541</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035494711619945</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021123100342662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002334268543921</v>
+        <v>1.002432769662817</v>
       </c>
       <c r="D8">
-        <v>1.022180847454799</v>
+        <v>1.021899292501394</v>
       </c>
       <c r="E8">
-        <v>1.017175514264218</v>
+        <v>1.017260418960921</v>
       </c>
       <c r="F8">
-        <v>1.025706580411251</v>
+        <v>1.025773597896054</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043747414397991</v>
+        <v>1.043639692125717</v>
       </c>
       <c r="J8">
-        <v>1.023874974643968</v>
+        <v>1.023970637038675</v>
       </c>
       <c r="K8">
-        <v>1.033068518788641</v>
+        <v>1.032790574751104</v>
       </c>
       <c r="L8">
-        <v>1.028127751659365</v>
+        <v>1.028211554501052</v>
       </c>
       <c r="M8">
-        <v>1.036549244169034</v>
+        <v>1.036615409887355</v>
       </c>
       <c r="N8">
-        <v>1.011812873793361</v>
+        <v>1.013594200593083</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.0374986592547</v>
+        <v>1.03755102520179</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034475564923465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034290123855585</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020798600127397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9938436843799727</v>
+        <v>0.9942508188991752</v>
       </c>
       <c r="D9">
-        <v>1.016647232711082</v>
+        <v>1.016776757319812</v>
       </c>
       <c r="E9">
-        <v>1.010528236311356</v>
+        <v>1.010863568449544</v>
       </c>
       <c r="F9">
-        <v>1.019083716069527</v>
+        <v>1.019352322316884</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042436326347097</v>
+        <v>1.042501492033315</v>
       </c>
       <c r="J9">
-        <v>1.019615726856135</v>
+        <v>1.020008241919194</v>
       </c>
       <c r="K9">
-        <v>1.029475873061733</v>
+        <v>1.029603383593377</v>
       </c>
       <c r="L9">
-        <v>1.023452778795853</v>
+        <v>1.023782816830216</v>
       </c>
       <c r="M9">
-        <v>1.031874579212609</v>
+        <v>1.032139034884977</v>
       </c>
       <c r="N9">
-        <v>1.010354173191214</v>
+        <v>1.012525241719352</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.033798950236041</v>
+        <v>1.034008251108166</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031932101744271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.032033072098924</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.0201709088645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9880291201867306</v>
+        <v>0.9886844783579751</v>
       </c>
       <c r="D10">
-        <v>1.012884046364857</v>
+        <v>1.013321062109315</v>
       </c>
       <c r="E10">
-        <v>1.006053365948746</v>
+        <v>1.00659025724784</v>
       </c>
       <c r="F10">
-        <v>1.014687033839249</v>
+        <v>1.015117909316921</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041501173647944</v>
+        <v>1.041695681378578</v>
       </c>
       <c r="J10">
-        <v>1.016725873234007</v>
+        <v>1.017354351496071</v>
       </c>
       <c r="K10">
-        <v>1.027024507726843</v>
+        <v>1.027453895118216</v>
       </c>
       <c r="L10">
-        <v>1.020314178426544</v>
+        <v>1.020841533386184</v>
       </c>
       <c r="M10">
-        <v>1.028796077894136</v>
+        <v>1.029219466691202</v>
       </c>
       <c r="N10">
-        <v>1.009368234871324</v>
+        <v>1.011923278930964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031414378786047</v>
+        <v>1.031749445602411</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.030215736599955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030531835889151</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019742032874749</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9860162566664173</v>
+        <v>0.9867956410062807</v>
       </c>
       <c r="D11">
-        <v>1.011650831969371</v>
+        <v>1.012216328407307</v>
       </c>
       <c r="E11">
-        <v>1.004848144914041</v>
+        <v>1.005485230490685</v>
       </c>
       <c r="F11">
-        <v>1.013918575440945</v>
+        <v>1.014429676627689</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041263839727628</v>
+        <v>1.04151126295634</v>
       </c>
       <c r="J11">
-        <v>1.015982573011381</v>
+        <v>1.016728244210978</v>
       </c>
       <c r="K11">
-        <v>1.026356325287332</v>
+        <v>1.026911482243764</v>
       </c>
       <c r="L11">
-        <v>1.019679207837964</v>
+        <v>1.020304439498472</v>
       </c>
       <c r="M11">
-        <v>1.028582696137059</v>
+        <v>1.029084506044989</v>
       </c>
       <c r="N11">
-        <v>1.009150651557373</v>
+        <v>1.012009091329408</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.031685165387516</v>
+        <v>1.032082091205046</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029776371673685</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.030184607617405</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019667938805534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9854716822417332</v>
+        <v>0.9862863748042425</v>
       </c>
       <c r="D12">
-        <v>1.011345092849945</v>
+        <v>1.011943336021533</v>
       </c>
       <c r="E12">
-        <v>1.004680483282008</v>
+        <v>1.005345154327235</v>
       </c>
       <c r="F12">
-        <v>1.014055976658799</v>
+        <v>1.014589130336301</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041241658733667</v>
+        <v>1.041501536068697</v>
       </c>
       <c r="J12">
-        <v>1.015903892585297</v>
+        <v>1.016682677143023</v>
       </c>
       <c r="K12">
-        <v>1.026258119364021</v>
+        <v>1.02684524270478</v>
       </c>
       <c r="L12">
-        <v>1.01971855864527</v>
+        <v>1.020370661121001</v>
       </c>
       <c r="M12">
-        <v>1.028918751518968</v>
+        <v>1.029442063309991</v>
       </c>
       <c r="N12">
-        <v>1.009152838238577</v>
+        <v>1.012119709242159</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.032279586403649</v>
+        <v>1.032693377965007</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029706935995912</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.030137774546641</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019679206115128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9860304828713824</v>
+        <v>0.9868034241464019</v>
       </c>
       <c r="D13">
-        <v>1.011746229411824</v>
+        <v>1.012297194387046</v>
       </c>
       <c r="E13">
-        <v>1.005309737945095</v>
+        <v>1.005938934896295</v>
       </c>
       <c r="F13">
-        <v>1.014918905213069</v>
+        <v>1.015423665626338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041394371592356</v>
+        <v>1.041632739311509</v>
       </c>
       <c r="J13">
-        <v>1.016343222775839</v>
+        <v>1.017082274257302</v>
       </c>
       <c r="K13">
-        <v>1.026608507660784</v>
+        <v>1.027149275816464</v>
       </c>
       <c r="L13">
-        <v>1.020292219279341</v>
+        <v>1.020909577218775</v>
       </c>
       <c r="M13">
-        <v>1.029722663693915</v>
+        <v>1.030218157754925</v>
       </c>
       <c r="N13">
-        <v>1.009329469334907</v>
+        <v>1.012224428982027</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.033193463948529</v>
+        <v>1.03358516006183</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029952165323249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030349982003047</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.01976056242248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9869205225020767</v>
+        <v>0.9876300543982059</v>
       </c>
       <c r="D14">
-        <v>1.012348073181438</v>
+        <v>1.012830365064128</v>
       </c>
       <c r="E14">
-        <v>1.006108488073862</v>
+        <v>1.006685052412419</v>
       </c>
       <c r="F14">
-        <v>1.015848378820928</v>
+        <v>1.016311021230631</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041580608736562</v>
+        <v>1.041788923360341</v>
       </c>
       <c r="J14">
-        <v>1.0168841787884</v>
+        <v>1.017563052278361</v>
       </c>
       <c r="K14">
-        <v>1.027057488924892</v>
+        <v>1.027530965974677</v>
       </c>
       <c r="L14">
-        <v>1.020932938364977</v>
+        <v>1.021498795034231</v>
       </c>
       <c r="M14">
-        <v>1.030494066799421</v>
+        <v>1.030948328895636</v>
       </c>
       <c r="N14">
-        <v>1.009531835428144</v>
+        <v>1.012296114216238</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033977365193897</v>
+        <v>1.034336417952478</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.030271048226859</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03062141968594</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019849664530963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9873826030173541</v>
+        <v>0.988060549462073</v>
       </c>
       <c r="D15">
-        <v>1.012654432259914</v>
+        <v>1.013102969879125</v>
       </c>
       <c r="E15">
-        <v>1.006486355768746</v>
+        <v>1.007036973656892</v>
       </c>
       <c r="F15">
-        <v>1.016250604238809</v>
+        <v>1.016692465996704</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041666757607995</v>
+        <v>1.04186056693873</v>
       </c>
       <c r="J15">
-        <v>1.017135536904568</v>
+        <v>1.017784446823841</v>
       </c>
       <c r="K15">
-        <v>1.027270961750014</v>
+        <v>1.02771136358554</v>
       </c>
       <c r="L15">
-        <v>1.021215723219817</v>
+        <v>1.021756194963443</v>
       </c>
       <c r="M15">
-        <v>1.030802167227113</v>
+        <v>1.031236087742255</v>
       </c>
       <c r="N15">
-        <v>1.009621702033278</v>
+        <v>1.012317258930753</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034258575044739</v>
+        <v>1.034601540573078</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030427892640298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030755446008585</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01988869176228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989730336702509</v>
+        <v>0.9902621697882827</v>
       </c>
       <c r="D16">
-        <v>1.014166577966402</v>
+        <v>1.014457982146977</v>
       </c>
       <c r="E16">
-        <v>1.008258857728787</v>
+        <v>1.008690650878854</v>
       </c>
       <c r="F16">
-        <v>1.01797576055598</v>
+        <v>1.018322303865819</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042045971048574</v>
+        <v>1.042173619568158</v>
       </c>
       <c r="J16">
-        <v>1.018279306938771</v>
+        <v>1.018789498727879</v>
       </c>
       <c r="K16">
-        <v>1.028248735423657</v>
+        <v>1.02853508352565</v>
       </c>
       <c r="L16">
-        <v>1.022444335566395</v>
+        <v>1.02286852392438</v>
       </c>
       <c r="M16">
-        <v>1.031992121130948</v>
+        <v>1.032332710095917</v>
       </c>
       <c r="N16">
-        <v>1.010006911153475</v>
+        <v>1.012378920168735</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035160234065581</v>
+        <v>1.035429439210163</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.031122410101289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.031341337677076</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020049601441273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9910681241346714</v>
+        <v>0.9915293110321325</v>
       </c>
       <c r="D17">
-        <v>1.015014163249593</v>
+        <v>1.015227005871802</v>
       </c>
       <c r="E17">
-        <v>1.009202656139165</v>
+        <v>1.00957749245455</v>
       </c>
       <c r="F17">
-        <v>1.018808839706621</v>
+        <v>1.019109622025085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042237387613281</v>
+        <v>1.042332520910445</v>
       </c>
       <c r="J17">
-        <v>1.018873921746047</v>
+        <v>1.019316942705838</v>
       </c>
       <c r="K17">
-        <v>1.028763963314374</v>
+        <v>1.028973216073062</v>
       </c>
       <c r="L17">
-        <v>1.023051230776761</v>
+        <v>1.023419651905705</v>
       </c>
       <c r="M17">
-        <v>1.032494927638814</v>
+        <v>1.032790686009495</v>
       </c>
       <c r="N17">
-        <v>1.010196507424139</v>
+        <v>1.012417894351876</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.0354280734702</v>
+        <v>1.035661867487791</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031489305346623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031653969450786</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020127405900566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9916474624728132</v>
+        <v>0.9920863466214977</v>
       </c>
       <c r="D18">
-        <v>1.015352110172854</v>
+        <v>1.015539653556708</v>
       </c>
       <c r="E18">
-        <v>1.009487904921601</v>
+        <v>1.009845417197118</v>
       </c>
       <c r="F18">
-        <v>1.018892467159895</v>
+        <v>1.019179268501022</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042279258926408</v>
+        <v>1.042364765481804</v>
       </c>
       <c r="J18">
-        <v>1.01902977517855</v>
+        <v>1.019451692364934</v>
       </c>
       <c r="K18">
-        <v>1.028911005458086</v>
+        <v>1.029095437162278</v>
       </c>
       <c r="L18">
-        <v>1.023144850124616</v>
+        <v>1.023496342733872</v>
       </c>
       <c r="M18">
-        <v>1.032392870226925</v>
+        <v>1.032674956047357</v>
       </c>
       <c r="N18">
-        <v>1.01022700815463</v>
+        <v>1.012396737596036</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.035108521688813</v>
+        <v>1.035331554597565</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031581559527774</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031727540308303</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020133898753257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9915526473467867</v>
+        <v>0.9920060171029406</v>
       </c>
       <c r="D19">
-        <v>1.015249883579356</v>
+        <v>1.015454983620481</v>
       </c>
       <c r="E19">
-        <v>1.00918170669316</v>
+        <v>1.009552003668869</v>
       </c>
       <c r="F19">
-        <v>1.018293813354789</v>
+        <v>1.018590832679092</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042197773923699</v>
+        <v>1.042291938349387</v>
       </c>
       <c r="J19">
-        <v>1.018802110018032</v>
+        <v>1.019238051200451</v>
       </c>
       <c r="K19">
-        <v>1.028747315157921</v>
+        <v>1.028949029610641</v>
       </c>
       <c r="L19">
-        <v>1.022780108363982</v>
+        <v>1.02314419904213</v>
       </c>
       <c r="M19">
-        <v>1.03174117885014</v>
+        <v>1.032033333446353</v>
       </c>
       <c r="N19">
-        <v>1.01012188500094</v>
+        <v>1.012307110632608</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.034265788817543</v>
+        <v>1.034496859032218</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031472260294313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031631085463045</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020081775721258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9895588570158942</v>
+        <v>0.9901275006233549</v>
       </c>
       <c r="D20">
-        <v>1.013890507848674</v>
+        <v>1.014231128017096</v>
       </c>
       <c r="E20">
-        <v>1.007231679010643</v>
+        <v>1.007697565190175</v>
       </c>
       <c r="F20">
-        <v>1.015843046770698</v>
+        <v>1.016216908613953</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041762400776664</v>
+        <v>1.04191582456238</v>
       </c>
       <c r="J20">
-        <v>1.017498286386221</v>
+        <v>1.018044367721986</v>
       </c>
       <c r="K20">
-        <v>1.027693429032143</v>
+        <v>1.028028272284871</v>
       </c>
       <c r="L20">
-        <v>1.021148548891176</v>
+        <v>1.02160639926934</v>
       </c>
       <c r="M20">
-        <v>1.02961292069786</v>
+        <v>1.029980473513226</v>
       </c>
       <c r="N20">
-        <v>1.009634661378824</v>
+        <v>1.012013886764346</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032050189767015</v>
+        <v>1.032341071928125</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030731060218949</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030984405992321</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019859529684044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9850918245107674</v>
+        <v>0.9859568901377599</v>
       </c>
       <c r="D21">
-        <v>1.010991347743174</v>
+        <v>1.011647751293165</v>
       </c>
       <c r="E21">
-        <v>1.003742207865209</v>
+        <v>1.004452014699534</v>
       </c>
       <c r="F21">
-        <v>1.012337398211245</v>
+        <v>1.012906913018125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.041007153374179</v>
+        <v>1.041295706988763</v>
       </c>
       <c r="J21">
-        <v>1.015226350183964</v>
+        <v>1.016053712063774</v>
       </c>
       <c r="K21">
-        <v>1.025767435397458</v>
+        <v>1.026411763220714</v>
       </c>
       <c r="L21">
-        <v>1.01865302811979</v>
+        <v>1.019349530346024</v>
       </c>
       <c r="M21">
-        <v>1.027088744812637</v>
+        <v>1.027647817444517</v>
       </c>
       <c r="N21">
-        <v>1.008852643713045</v>
+        <v>1.011888094376555</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030011237295109</v>
+        <v>1.030453712221305</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.029372542571297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029845040025456</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019533527280151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9822550084684267</v>
+        <v>0.9833083840779979</v>
       </c>
       <c r="D22">
-        <v>1.009151424882554</v>
+        <v>1.010008745635056</v>
       </c>
       <c r="E22">
-        <v>1.001554550995833</v>
+        <v>1.002419408158479</v>
       </c>
       <c r="F22">
-        <v>1.010169280720684</v>
+        <v>1.010863151273882</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.040518875712396</v>
+        <v>1.040893488718732</v>
       </c>
       <c r="J22">
-        <v>1.013794299661222</v>
+        <v>1.014799081926395</v>
       </c>
       <c r="K22">
-        <v>1.024543744377116</v>
+        <v>1.025384501089903</v>
       </c>
       <c r="L22">
-        <v>1.017095274703422</v>
+        <v>1.017943087984424</v>
       </c>
       <c r="M22">
-        <v>1.025541938618765</v>
+        <v>1.026222435620771</v>
       </c>
       <c r="N22">
-        <v>1.008360470376544</v>
+        <v>1.011804394324225</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028787024660536</v>
+        <v>1.02932560114392</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028493721914763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.029103809834459</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019324715398942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9837558135283503</v>
+        <v>0.9846973594737539</v>
       </c>
       <c r="D23">
-        <v>1.010118167589999</v>
+        <v>1.010859826376679</v>
       </c>
       <c r="E23">
-        <v>1.002710448336131</v>
+        <v>1.003482941066986</v>
       </c>
       <c r="F23">
-        <v>1.011316027922726</v>
+        <v>1.011935898285199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040774195548527</v>
+        <v>1.04109912469325</v>
       </c>
       <c r="J23">
-        <v>1.014548275493202</v>
+        <v>1.015447664569721</v>
       </c>
       <c r="K23">
-        <v>1.025183579818138</v>
+        <v>1.02591127342147</v>
       </c>
       <c r="L23">
-        <v>1.017916829829002</v>
+        <v>1.018674494737298</v>
       </c>
       <c r="M23">
-        <v>1.026358898135441</v>
+        <v>1.026967130786812</v>
       </c>
       <c r="N23">
-        <v>1.008618605864247</v>
+        <v>1.011803802652324</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029433603775359</v>
+        <v>1.02991498651315</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028936411845295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029465615938388</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019429950023601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9895661983353103</v>
+        <v>0.9901354743878624</v>
       </c>
       <c r="D24">
-        <v>1.013879975188971</v>
+        <v>1.01422133162135</v>
       </c>
       <c r="E24">
-        <v>1.007203706810754</v>
+        <v>1.00767025287975</v>
       </c>
       <c r="F24">
-        <v>1.015776192264597</v>
+        <v>1.016150590327646</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041748633086557</v>
+        <v>1.041902604827703</v>
       </c>
       <c r="J24">
-        <v>1.017471890271247</v>
+        <v>1.018018611267196</v>
       </c>
       <c r="K24">
-        <v>1.02766764983663</v>
+        <v>1.028003224151064</v>
       </c>
       <c r="L24">
-        <v>1.021105487356179</v>
+        <v>1.021563996025147</v>
       </c>
       <c r="M24">
-        <v>1.029531810970951</v>
+        <v>1.029899897998943</v>
       </c>
       <c r="N24">
-        <v>1.009621004230871</v>
+        <v>1.011999454063914</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031944786350965</v>
+        <v>1.032236106005714</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030685237440433</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030936431064823</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019849627418962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.996090905647131</v>
+        <v>0.9964062063740781</v>
       </c>
       <c r="D25">
-        <v>1.018120008794096</v>
+        <v>1.018133571538137</v>
       </c>
       <c r="E25">
-        <v>1.012282458024805</v>
+        <v>1.012543096497776</v>
       </c>
       <c r="F25">
-        <v>1.020827261472382</v>
+        <v>1.021035767519841</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042799303985173</v>
+        <v>1.042815512537375</v>
       </c>
       <c r="J25">
-        <v>1.020750546395087</v>
+        <v>1.021055124271748</v>
       </c>
       <c r="K25">
-        <v>1.030443399412527</v>
+        <v>1.030456761035071</v>
       </c>
       <c r="L25">
-        <v>1.024693050473936</v>
+        <v>1.024949768208317</v>
       </c>
       <c r="M25">
-        <v>1.033110640871558</v>
+        <v>1.033316076527579</v>
       </c>
       <c r="N25">
-        <v>1.010744514157072</v>
+        <v>1.012778464821715</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034777218690949</v>
+        <v>1.034939808524369</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032644978842154</v>
+        <v>1.032668037723005</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020342608482241</v>
       </c>
     </row>
   </sheetData>
